--- a/prix/bicones.xlsx
+++ b/prix/bicones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889C7F3A-379B-4116-BC82-FF98161DBBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A413A7-8FAA-4AA3-AAB3-D5830FB99346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE534A2A-185F-4964-A8EA-80A75C3E7C34}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{CE534A2A-185F-4964-A8EA-80A75C3E7C34}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +613,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -654,6 +666,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -992,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4F7123-4CF8-49A4-855C-11A40771464A}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,9 +1060,9 @@
         <v>155</v>
       </c>
       <c r="D2" s="9">
-        <v>4.07</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>4.92</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1059,9 +1077,9 @@
         <v>156</v>
       </c>
       <c r="D3" s="9">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="E3" s="8" t="s">
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1076,9 +1094,9 @@
         <v>157</v>
       </c>
       <c r="D4" s="9">
-        <v>4.0200000000000005</v>
-      </c>
-      <c r="E4" s="8" t="s">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1093,9 +1111,9 @@
         <v>158</v>
       </c>
       <c r="D5" s="9">
-        <v>4.04</v>
-      </c>
-      <c r="E5" s="8" t="s">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1110,9 +1128,9 @@
         <v>159</v>
       </c>
       <c r="D6" s="9">
-        <v>4.16</v>
-      </c>
-      <c r="E6" s="8" t="s">
+        <v>5.03</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1127,9 +1145,9 @@
         <v>160</v>
       </c>
       <c r="D7" s="9">
-        <v>6.46</v>
-      </c>
-      <c r="E7" s="8" t="s">
+        <v>7.82</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1144,9 +1162,9 @@
         <v>161</v>
       </c>
       <c r="D8" s="9">
-        <v>6.75</v>
-      </c>
-      <c r="E8" s="8" t="s">
+        <v>8.17</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1161,9 +1179,9 @@
         <v>162</v>
       </c>
       <c r="D9" s="9">
-        <v>10.83</v>
-      </c>
-      <c r="E9" s="8" t="s">
+        <v>13.1</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1178,9 +1196,9 @@
         <v>163</v>
       </c>
       <c r="D10" s="9">
-        <v>5.36</v>
-      </c>
-      <c r="E10" s="8" t="s">
+        <v>6.49</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1195,9 +1213,9 @@
         <v>164</v>
       </c>
       <c r="D11" s="9">
-        <v>4.0200000000000005</v>
-      </c>
-      <c r="E11" s="8" t="s">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1212,9 +1230,9 @@
         <v>165</v>
       </c>
       <c r="D12" s="9">
-        <v>5.19</v>
-      </c>
-      <c r="E12" s="8" t="s">
+        <v>6.28</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1229,9 +1247,9 @@
         <v>155</v>
       </c>
       <c r="D13" s="9">
-        <v>2.57</v>
-      </c>
-      <c r="E13" s="8" t="s">
+        <v>3.11</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1246,9 +1264,9 @@
         <v>156</v>
       </c>
       <c r="D14" s="9">
-        <v>3.8200000000000003</v>
-      </c>
-      <c r="E14" s="8" t="s">
+        <v>4.62</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1263,9 +1281,9 @@
         <v>157</v>
       </c>
       <c r="D15" s="9">
-        <v>3.8200000000000003</v>
-      </c>
-      <c r="E15" s="8" t="s">
+        <v>4.62</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1280,9 +1298,9 @@
         <v>158</v>
       </c>
       <c r="D16" s="9">
-        <v>10.950000000000001</v>
-      </c>
-      <c r="E16" s="8" t="s">
+        <v>13.25</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1297,9 +1315,9 @@
         <v>159</v>
       </c>
       <c r="D17" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="E17" s="8" t="s">
+        <v>5.45</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1314,9 +1332,9 @@
         <v>160</v>
       </c>
       <c r="D18" s="9">
-        <v>5.21</v>
-      </c>
-      <c r="E18" s="8" t="s">
+        <v>6.3</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1331,9 +1349,9 @@
         <v>161</v>
       </c>
       <c r="D19" s="9">
-        <v>6.82</v>
-      </c>
-      <c r="E19" s="8" t="s">
+        <v>8.25</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1348,9 +1366,9 @@
         <v>162</v>
       </c>
       <c r="D20" s="9">
-        <v>9.67</v>
-      </c>
-      <c r="E20" s="8" t="s">
+        <v>11.700000000000001</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1365,9 +1383,9 @@
         <v>155</v>
       </c>
       <c r="D21" s="9">
-        <v>5.93</v>
-      </c>
-      <c r="E21" s="8" t="s">
+        <v>7.18</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1382,9 +1400,9 @@
         <v>156</v>
       </c>
       <c r="D22" s="9">
-        <v>4.88</v>
-      </c>
-      <c r="E22" s="8" t="s">
+        <v>5.9</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1399,9 +1417,9 @@
         <v>157</v>
       </c>
       <c r="D23" s="9">
-        <v>5.78</v>
-      </c>
-      <c r="E23" s="8" t="s">
+        <v>6.99</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1416,9 +1434,9 @@
         <v>158</v>
       </c>
       <c r="D24" s="9">
-        <v>6.3500000000000005</v>
-      </c>
-      <c r="E24" s="8" t="s">
+        <v>7.68</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1433,9 +1451,9 @@
         <v>159</v>
       </c>
       <c r="D25" s="9">
-        <v>6.1000000000000005</v>
-      </c>
-      <c r="E25" s="8" t="s">
+        <v>7.38</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1450,9 +1468,9 @@
         <v>160</v>
       </c>
       <c r="D26" s="9">
-        <v>10.33</v>
-      </c>
-      <c r="E26" s="8" t="s">
+        <v>12.5</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1467,9 +1485,9 @@
         <v>161</v>
       </c>
       <c r="D27" s="9">
-        <v>7.9</v>
-      </c>
-      <c r="E27" s="8" t="s">
+        <v>9.56</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1484,9 +1502,9 @@
         <v>162</v>
       </c>
       <c r="D28" s="9">
-        <v>20.059999999999999</v>
-      </c>
-      <c r="E28" s="8" t="s">
+        <v>24.27</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1501,9 +1519,9 @@
         <v>166</v>
       </c>
       <c r="D29" s="9">
-        <v>7.48</v>
-      </c>
-      <c r="E29" s="8" t="s">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1518,9 +1536,9 @@
         <v>167</v>
       </c>
       <c r="D30" s="9">
-        <v>5.48</v>
-      </c>
-      <c r="E30" s="8" t="s">
+        <v>6.63</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1535,9 +1553,9 @@
         <v>168</v>
       </c>
       <c r="D31" s="9">
-        <v>3.44</v>
-      </c>
-      <c r="E31" s="8" t="s">
+        <v>4.16</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1552,9 +1570,9 @@
         <v>169</v>
       </c>
       <c r="D32" s="9">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="E32" s="8" t="s">
+        <v>5.01</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1569,9 +1587,9 @@
         <v>170</v>
       </c>
       <c r="D33" s="9">
-        <v>5.25</v>
-      </c>
-      <c r="E33" s="8" t="s">
+        <v>6.3500000000000005</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1586,9 +1604,9 @@
         <v>171</v>
       </c>
       <c r="D34" s="9">
-        <v>6.07</v>
-      </c>
-      <c r="E34" s="8" t="s">
+        <v>7.3500000000000005</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1603,9 +1621,9 @@
         <v>172</v>
       </c>
       <c r="D35" s="9">
-        <v>5.0600000000000005</v>
-      </c>
-      <c r="E35" s="8" t="s">
+        <v>6.12</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1620,9 +1638,9 @@
         <v>173</v>
       </c>
       <c r="D36" s="9">
-        <v>5.26</v>
-      </c>
-      <c r="E36" s="8" t="s">
+        <v>6.36</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1637,9 +1655,9 @@
         <v>174</v>
       </c>
       <c r="D37" s="9">
-        <v>3.8200000000000003</v>
-      </c>
-      <c r="E37" s="8" t="s">
+        <v>4.62</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1654,9 +1672,9 @@
         <v>175</v>
       </c>
       <c r="D38" s="9">
-        <v>4.46</v>
-      </c>
-      <c r="E38" s="8" t="s">
+        <v>5.4</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1671,9 +1689,9 @@
         <v>176</v>
       </c>
       <c r="D39" s="9">
-        <v>5.0600000000000005</v>
-      </c>
-      <c r="E39" s="8" t="s">
+        <v>6.12</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1688,9 +1706,9 @@
         <v>177</v>
       </c>
       <c r="D40" s="9">
-        <v>5.0600000000000005</v>
-      </c>
-      <c r="E40" s="8" t="s">
+        <v>6.12</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1705,9 +1723,9 @@
         <v>178</v>
       </c>
       <c r="D41" s="9">
-        <v>8.32</v>
-      </c>
-      <c r="E41" s="8" t="s">
+        <v>10.07</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1722,9 +1740,9 @@
         <v>155</v>
       </c>
       <c r="D42" s="9">
-        <v>3.8000000000000003</v>
-      </c>
-      <c r="E42" s="8" t="s">
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1739,9 +1757,9 @@
         <v>156</v>
       </c>
       <c r="D43" s="9">
-        <v>3.2600000000000002</v>
-      </c>
-      <c r="E43" s="8" t="s">
+        <v>3.94</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1756,9 +1774,9 @@
         <v>155</v>
       </c>
       <c r="D44" s="9">
-        <v>3.54</v>
-      </c>
-      <c r="E44" s="8" t="s">
+        <v>4.28</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1773,9 +1791,9 @@
         <v>156</v>
       </c>
       <c r="D45" s="9">
-        <v>3.8000000000000003</v>
-      </c>
-      <c r="E45" s="8" t="s">
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1790,9 +1808,9 @@
         <v>157</v>
       </c>
       <c r="D46" s="9">
-        <v>4.38</v>
-      </c>
-      <c r="E46" s="8" t="s">
+        <v>5.3</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1807,9 +1825,9 @@
         <v>158</v>
       </c>
       <c r="D47" s="9">
-        <v>3.39</v>
-      </c>
-      <c r="E47" s="8" t="s">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1824,9 +1842,9 @@
         <v>159</v>
       </c>
       <c r="D48" s="9">
-        <v>4.09</v>
-      </c>
-      <c r="E48" s="8" t="s">
+        <v>4.95</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1841,9 +1859,9 @@
         <v>157</v>
       </c>
       <c r="D49" s="9">
-        <v>2.86</v>
-      </c>
-      <c r="E49" s="8" t="s">
+        <v>3.46</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1858,9 +1876,9 @@
         <v>158</v>
       </c>
       <c r="D50" s="9">
-        <v>3.34</v>
-      </c>
-      <c r="E50" s="8" t="s">
+        <v>4.04</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1875,9 +1893,9 @@
         <v>159</v>
       </c>
       <c r="D51" s="9">
-        <v>3.09</v>
-      </c>
-      <c r="E51" s="8" t="s">
+        <v>3.74</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1892,9 +1910,9 @@
         <v>159</v>
       </c>
       <c r="D52" s="9">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="E52" s="8" t="s">
+        <v>5.63</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1909,9 +1927,9 @@
         <v>160</v>
       </c>
       <c r="D53" s="9">
-        <v>5.67</v>
-      </c>
-      <c r="E53" s="8" t="s">
+        <v>6.86</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1926,9 +1944,9 @@
         <v>161</v>
       </c>
       <c r="D54" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="E54" s="8" t="s">
+        <v>5.45</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1943,9 +1961,9 @@
         <v>161</v>
       </c>
       <c r="D55" s="9">
-        <v>9.34</v>
-      </c>
-      <c r="E55" s="8" t="s">
+        <v>11.3</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1960,9 +1978,9 @@
         <v>162</v>
       </c>
       <c r="D56" s="9">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="E56" s="8" t="s">
+        <v>12.05</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1977,9 +1995,9 @@
         <v>155</v>
       </c>
       <c r="D57" s="9">
-        <v>2.57</v>
-      </c>
-      <c r="E57" s="8" t="s">
+        <v>3.11</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1994,9 +2012,9 @@
         <v>156</v>
       </c>
       <c r="D58" s="9">
-        <v>2.5100000000000002</v>
-      </c>
-      <c r="E58" s="8" t="s">
+        <v>3.04</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2011,9 +2029,9 @@
         <v>155</v>
       </c>
       <c r="D59" s="9">
-        <v>2.7600000000000002</v>
-      </c>
-      <c r="E59" s="8" t="s">
+        <v>3.34</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2028,9 +2046,9 @@
         <v>156</v>
       </c>
       <c r="D60" s="9">
-        <v>3.48</v>
-      </c>
-      <c r="E60" s="8" t="s">
+        <v>4.21</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2045,9 +2063,9 @@
         <v>157</v>
       </c>
       <c r="D61" s="9">
-        <v>3.35</v>
-      </c>
-      <c r="E61" s="8" t="s">
+        <v>4.05</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2062,9 +2080,9 @@
         <v>158</v>
       </c>
       <c r="D62" s="9">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="E62" s="8" t="s">
+        <v>5.01</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2079,9 +2097,9 @@
         <v>159</v>
       </c>
       <c r="D63" s="9">
-        <v>3.22</v>
-      </c>
-      <c r="E63" s="8" t="s">
+        <v>3.9</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2096,9 +2114,9 @@
         <v>157</v>
       </c>
       <c r="D64" s="9">
-        <v>3.34</v>
-      </c>
-      <c r="E64" s="8" t="s">
+        <v>4.04</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2113,9 +2131,9 @@
         <v>158</v>
       </c>
       <c r="D65" s="9">
-        <v>3.34</v>
-      </c>
-      <c r="E65" s="8" t="s">
+        <v>4.04</v>
+      </c>
+      <c r="E65" s="10" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2130,9 +2148,9 @@
         <v>159</v>
       </c>
       <c r="D66" s="9">
-        <v>3.19</v>
-      </c>
-      <c r="E66" s="8" t="s">
+        <v>3.86</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2147,9 +2165,9 @@
         <v>159</v>
       </c>
       <c r="D67" s="9">
-        <v>4.79</v>
-      </c>
-      <c r="E67" s="8" t="s">
+        <v>5.8</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2164,9 +2182,9 @@
         <v>160</v>
       </c>
       <c r="D68" s="9">
-        <v>5.67</v>
-      </c>
-      <c r="E68" s="8" t="s">
+        <v>6.86</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2181,9 +2199,9 @@
         <v>161</v>
       </c>
       <c r="D69" s="9">
-        <v>5.18</v>
-      </c>
-      <c r="E69" s="8" t="s">
+        <v>6.2700000000000005</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2198,9 +2216,9 @@
         <v>162</v>
       </c>
       <c r="D70" s="9">
-        <v>10.57</v>
-      </c>
-      <c r="E70" s="8" t="s">
+        <v>12.790000000000001</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2215,9 +2233,9 @@
         <v>179</v>
       </c>
       <c r="D71" s="9">
-        <v>6.28</v>
-      </c>
-      <c r="E71" s="8" t="s">
+        <v>7.6</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2232,9 +2250,9 @@
         <v>180</v>
       </c>
       <c r="D72" s="9">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="E72" s="8" t="s">
+        <v>6.03</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>140</v>
       </c>
     </row>
